--- a/biology/Zoologie/Callophrys_sheridanii/Callophrys_sheridanii.xlsx
+++ b/biology/Zoologie/Callophrys_sheridanii/Callophrys_sheridanii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callophrys sheridanii est une espèce de papillon de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Callophrys.
 </t>
@@ -511,12 +523,49 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callophrys  sheridanii nommé par W.H.Edwards en 1877.
-Callophrys  sheridanii se nomme en anglais White-lined Green Hairstreak[1].
-Sous-espèce
-Callophrys sheridanii neoperplexa Barnes et Benjamin, 1923 ; présent dans le sud-ouest de l'Alberta.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys  sheridanii nommé par W.H.Edwards en 1877.
+Callophrys  sheridanii se nomme en anglais White-lined Green Hairstreak.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Callophrys_sheridanii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_sheridanii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Callophrys sheridanii neoperplexa Barnes et Benjamin, 1923 ; présent dans le sud-ouest de l'Alberta.
 Callophrys sheridanii newcomeri Clench, 1963 ; présent dans le sud de la Colombie-Britannique.
 Deux autres sont considérées soit comme des sous-espèces soit comme des espèces:
 Callophrys sheridanii comstocki Henne, 1940 ; ou Callophrys comstocki le Desert Green Hairstreak
@@ -524,37 +573,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Callophrys_sheridanii</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callophrys_sheridanii</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles et femelles de ce petit papillon sont identiques. Le dessus est brun grisâtre, le revers des ailes est vert, avec une ligne blanche.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -576,16 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Ce sont les chrysalides qui hivernent[2].
-Il vole en une génération de mars à juin[2].
-Plantes hôtes
-Les plantes hôtes sont des Eriogonum [1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles et femelles de ce petit papillon sont identiques. Le dessus est brun grisâtre, le revers des ailes est vert, avec une ligne blanche.
 </t>
         </is>
       </c>
@@ -611,16 +627,163 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les chrysalides qui hivernent.
+Il vole en une génération de mars à juin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callophrys_sheridanii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_sheridanii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Eriogonum .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callophrys_sheridanii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_sheridanii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callophrys  sheridanii est présent en Amérique du Nord dans les Montagnes Rocheuses, au Canada en Colombie-Britannique et Saskatchewan, et aux USA au Nevada, en Arizona, au Dakota du Nord  et Nouveau-Mexique[1],[2].
-Biotope
-Son habitat consiste en versants de montagnes et de canyons où pousse la plante hôte de sa chenille[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys  sheridanii est présent en Amérique du Nord dans les Montagnes Rocheuses, au Canada en Colombie-Britannique et Saskatchewan, et aux USA au Nevada, en Arizona, au Dakota du Nord  et Nouveau-Mexique,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callophrys_sheridanii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_sheridanii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat consiste en versants de montagnes et de canyons où pousse la plante hôte de sa chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callophrys_sheridanii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_sheridanii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
